--- a/backend/static/tpl/users_tpl.xlsx
+++ b/backend/static/tpl/users_tpl.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13160"/>
+    <workbookView windowWidth="26860" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,14 +108,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -254,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +285,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,12 +476,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,55 +615,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,77 +675,93 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1059,67 +1115,68 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.6153846153846" customWidth="1"/>
-    <col min="2" max="2" width="9.07692307692308" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="16.5096153846154" customWidth="1"/>
+    <col min="3" max="3" width="14.9038461538462" customWidth="1"/>
+    <col min="4" max="4" width="16.0192307692308" customWidth="1"/>
     <col min="5" max="5" width="8.15384615384615" customWidth="1"/>
     <col min="6" max="6" width="12.7692307692308" customWidth="1"/>
     <col min="7" max="7" width="10.3076923076923" customWidth="1"/>
     <col min="8" max="8" width="12.9230769230769" customWidth="1"/>
-    <col min="9" max="9" width="10.5384615384615" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5384615384615" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.1538461538462" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="27.1538461538462" customWidth="1"/>
-    <col min="13" max="14" width="7.30769230769231" customWidth="1"/>
+    <col min="12" max="12" width="27.1538461538462" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.30769230769231" customWidth="1"/>
+    <col min="14" max="14" width="12.3269230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1148,7 +1205,7 @@
       <c r="H2">
         <v>13974578110</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
@@ -1157,7 +1214,7 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N2" t="s">
@@ -1165,6 +1222,17 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576" errorStyle="warning">
+      <formula1>"用户,系统审计员,系统管理员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"组织用户,组织审计员,组织管理员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576 J$1:J$1048576 K$1:K$1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
